--- a/biology/Neurosciences/Fabrizio_Benedetti/Fabrizio_Benedetti.xlsx
+++ b/biology/Neurosciences/Fabrizio_Benedetti/Fabrizio_Benedetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabrizio Benedetti est un neuroscientifique italien, professeur de physiologie à l'université de Turin. 
-Il est reconnu pour ses recherches sur l'effet placebo[1] et membre de l'Academia Europaea depuis 2010[2].
+Il est reconnu pour ses recherches sur l'effet placebo et membre de l'Academia Europaea depuis 2010.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1984 : Silbert International Award, Université de Californie à Los Angeles
 1997 : Novartis Prize, Italian Society of Neuroscience
-2009 : Medical Books Award, British Medical Association[2].</t>
+2009 : Medical Books Award, British Medical Association.</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Placebo Effects: Understanding the mechanisms in health and disease, Oxford University Press, 2008
 (en) The Patient’s Brain: The Neuroscience Behind the Doctor–Patient Relationship, Oxford University Press, 2010</t>
